--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-25 18:19:23.715005</t>
+          <t>2025-04-27 16:20:47.553529</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 16:20:47.553529</t>
+          <t>2025-04-27 18:29:03.678028</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:29:03.678028</t>
+          <t>2025-04-27 18:40:07.464904</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:40:07.464904</t>
+          <t>2025-04-28 10:33:26.738918</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:40:07.464904</t>
+          <t>2025-04-28 10:44:06.901654</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:44:06.901654</t>
+          <t>2025-04-30 17:57:30.838522</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="11.711"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="4" max="4" bestFit="1" customWidth="1" hidden="false" width="13.711"/>
     <col min="5" max="5" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="6" max="6" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-30 17:57:30.838522</t>
+          <t>2025-05-02 11:35:32.512229</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:33:26.738918</t>
+          <t>2025-05-08 15:52:49.783684</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -585,7 +585,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-08 16:54:02.575614</t>
+          <t>2025-05-30 17:04:40.252366</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
@@ -2067,7 +2067,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="16.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" bestFit="1" customWidth="1" hidden="false" width="9.711"/>
     <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
@@ -2221,7 +2221,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="44.711"/>
   </cols>
@@ -2268,7 +2268,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="45.711"/>
   </cols>
@@ -2315,7 +2315,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -2362,7 +2362,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -2409,7 +2409,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -6673,7 +6673,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -10937,7 +10937,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -15053,7 +15053,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-30 17:04:40.252366</t>
+          <t>2025-06-16 10:45:04.567055</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
+  <bookViews>
+    <workbookView activeTab="0" firstSheet="0" windowHeight="13125" windowWidth="13125" xWindow="0" yWindow="0"/>
+  </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Feature_QC_metrics" sheetId="2" state="visible" r:id="rId2"/>
@@ -11,10 +14,10 @@
     <sheet name="Raw_Intensity_FullDataset" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Norm_Intensity_FullDataset" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Conc_FullDataset" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SampleMetadata" sheetId="10" state="visible" r:id="rId9"/>
-    <sheet name="FeatureMetadata" sheetId="11" state="visible" r:id="rId10"/>
-    <sheet name="InternalStandards" sheetId="12" state="visible" r:id="rId11"/>
-    <sheet name="BatchInfo" sheetId="13" state="visible" r:id="rId12"/>
+    <sheet name="SampleMetadata" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="FeatureMetadata" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="InternalStandards" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BatchInfo" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -63,6 +66,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Info"/>
     <tableColumn id="2" name="Value"/>
@@ -72,29 +76,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="10" name="Table10" displayName="Table10" ref="A1:M66" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M66"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="analysis_order"/>
-    <tableColumn id="2" name="analysis_id"/>
-    <tableColumn id="3" name="sample_id"/>
-    <tableColumn id="4" name="qc_type"/>
-    <tableColumn id="5" name="batch_id"/>
-    <tableColumn id="6" name="replicate_no"/>
-    <tableColumn id="7" name="specimen"/>
-    <tableColumn id="8" name="sample_amount"/>
-    <tableColumn id="9" name="sample_amount_unit"/>
-    <tableColumn id="10" name="istd_volume"/>
-    <tableColumn id="11" name="valid_analysis"/>
-    <tableColumn id="12" name="annot_order_num"/>
-    <tableColumn id="13" name="remarks"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="11" name="Table11" displayName="Table11" ref="A1:Q17" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="10" name="Table10" displayName="Table10" ref="A1:Q17" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:Q17"/>
   <tableColumns count="17">
     <tableColumn id="1" name="feature_id"/>
@@ -119,8 +101,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="12" name="Table12" displayName="Table12" ref="A1:D3" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="11" name="Table11" displayName="Table11" ref="A1:D3" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="istd_feature_id"/>
@@ -132,8 +114,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="13" name="Table13" displayName="Table13" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="12" name="Table12" displayName="Table12" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="batch_id"/>
     <tableColumn id="2" name="batch_no"/>
@@ -158,7 +141,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="3" name="Table3" displayName="Table3" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Calibration metrics has not been calculated."/>
+    <tableColumn id="1" name="Calibration metrics have not been calculated."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -166,6 +149,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="4" name="Table4" displayName="Table4" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -175,6 +159,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="5" name="Table5" displayName="Table5" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -184,6 +169,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="6" name="Table6" displayName="Table6" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -211,6 +197,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="7" name="Table7" displayName="Table7" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -238,6 +225,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="8" name="Table8" displayName="Table8" ref="A1:Q66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Q66"/>
   <tableColumns count="17">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -256,6 +244,28 @@
     <tableColumn id="15" name="S1P d18:2 [M&gt;113]"/>
     <tableColumn id="16" name="S1P d19:1 [M&gt;113]"/>
     <tableColumn id="17" name="S1P d20:1 [M&gt;113]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="9" name="Table9" displayName="Table9" ref="A1:M66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M66"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="analysis_order"/>
+    <tableColumn id="2" name="analysis_id"/>
+    <tableColumn id="3" name="sample_id"/>
+    <tableColumn id="4" name="qc_type"/>
+    <tableColumn id="5" name="batch_id"/>
+    <tableColumn id="6" name="replicate_no"/>
+    <tableColumn id="7" name="specimen"/>
+    <tableColumn id="8" name="sample_amount"/>
+    <tableColumn id="9" name="sample_amount_unit"/>
+    <tableColumn id="10" name="istd_volume"/>
+    <tableColumn id="11" name="valid_analysis"/>
+    <tableColumn id="12" name="annot_order_num"/>
+    <tableColumn id="13" name="remarks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 10:45:04.567055</t>
+          <t>2025-07-01 19:07:03.731175</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2163,10 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
+    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2270,13 +2283,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="45.711"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="46.711"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Calibration metrics has not been calculated.</t>
+          <t>Calibration metrics have not been calculated.</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-01 19:07:03.731175</t>
+          <t>2025-07-03 16:14:37.465809</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-03 16:14:37.465809</t>
+          <t>2025-07-16 13:43:14.181258</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -598,7 +598,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 13:43:14.181258</t>
+          <t>2025-07-16 16:09:21.54838</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -598,7 +598,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 16:09:21.54838</t>
+          <t>2025-08-07 13:33:10.399678</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-07 13:33:10.399678</t>
+          <t>2025-09-19 10:32:19.874987</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-19 10:32:19.874987</t>
+          <t>2025-09-26 17:48:10.394224</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2.1</t>
+          <t>0.2.2</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26 17:48:10.394224</t>
+          <t>2025-10-01 17:44:15.842483</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2.2</t>
+          <t>0.2.3</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pmpol/uL</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report.xlsx
+++ b/vignettes/articles/report.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-01 17:44:15.842483</t>
+          <t>2025-10-02 15:06:39.332728</t>
         </is>
       </c>
     </row>
